--- a/Final Data Ohio/Ohio companies with county/Ohio_2013.xlsx
+++ b/Final Data Ohio/Ohio companies with county/Ohio_2013.xlsx
@@ -1,17 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Data Analytics in Business/HousingProject/Final Data Ohio/Ohio companies with county/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_67CDE44D424EBF89B7CAEA7EF7AE5A23782AC0B8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4D15245-BDC7-4FCF-B364-079178ABBE68}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="6405" yWindow="2475" windowWidth="22830" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - Ohio_2013" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - Ohio_2013" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1 - Ohio_2013'!$A$2:$F$56</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="169">
   <si>
     <t>Ohio_2013</t>
   </si>
@@ -28,24 +56,15 @@
     <t>state</t>
   </si>
   <si>
-    <t>Vantiv, Inc.</t>
-  </si>
-  <si>
     <t>1863.2</t>
   </si>
   <si>
     <t>OH</t>
   </si>
   <si>
-    <t>Health Care REIT, Inc.</t>
-  </si>
-  <si>
     <t>1901.4</t>
   </si>
   <si>
-    <t>A. Schulman, Inc.</t>
-  </si>
-  <si>
     <t>2106.8</t>
   </si>
   <si>
@@ -55,9 +74,6 @@
     <t>2133.8</t>
   </si>
   <si>
-    <t>Express, Inc.</t>
-  </si>
-  <si>
     <t>2148.1</t>
   </si>
   <si>
@@ -73,27 +89,15 @@
     <t>2341.5</t>
   </si>
   <si>
-    <t>Applied Industrial Technologies, Inc.</t>
-  </si>
-  <si>
     <t>2375.4</t>
   </si>
   <si>
-    <t>Hyster-Yale Materials Handling, Inc.</t>
-  </si>
-  <si>
     <t>2469.1</t>
   </si>
   <si>
-    <t>The Wendy's Company</t>
-  </si>
-  <si>
     <t>2505.2</t>
   </si>
   <si>
-    <t>Worthington Industries, Inc.</t>
-  </si>
-  <si>
     <t>2534.7</t>
   </si>
   <si>
@@ -109,15 +113,9 @@
     <t>2665.0</t>
   </si>
   <si>
-    <t>Lincoln Electric Holdings, Inc.</t>
-  </si>
-  <si>
     <t>2853.4</t>
   </si>
   <si>
-    <t>The Scotts Miracle-Gro Company</t>
-  </si>
-  <si>
     <t>2852.8</t>
   </si>
   <si>
@@ -163,9 +161,6 @@
     <t>4269.5</t>
   </si>
   <si>
-    <t>Cooper Tire &amp;amp; Rubber Company</t>
-  </si>
-  <si>
     <t>4200.8</t>
   </si>
   <si>
@@ -175,9 +170,6 @@
     <t>4412.4</t>
   </si>
   <si>
-    <t>Abercrombie &amp;amp; Fitch Co.</t>
-  </si>
-  <si>
     <t>4510.8</t>
   </si>
   <si>
@@ -193,27 +185,15 @@
     <t>4742.0</t>
   </si>
   <si>
-    <t>The Timken Company</t>
-  </si>
-  <si>
     <t>4987.0</t>
   </si>
   <si>
-    <t>American Financial Group, Inc.</t>
-  </si>
-  <si>
     <t>5062.0</t>
   </si>
   <si>
-    <t>Western &amp;amp; Southern Mutual Holding Company</t>
-  </si>
-  <si>
     <t>5293.7</t>
   </si>
   <si>
-    <t>The Andersons, Inc.</t>
-  </si>
-  <si>
     <t>5272.0</t>
   </si>
   <si>
@@ -223,15 +203,9 @@
     <t>5172.0</t>
   </si>
   <si>
-    <t>Big Lots, Inc.</t>
-  </si>
-  <si>
     <t>5400.1</t>
   </si>
   <si>
-    <t>The J.M. Smucker Company</t>
-  </si>
-  <si>
     <t>5525.8</t>
   </si>
   <si>
@@ -247,15 +221,9 @@
     <t>6024.3</t>
   </si>
   <si>
-    <t>Omnicare, Inc.</t>
-  </si>
-  <si>
     <t>6160.4</t>
   </si>
   <si>
-    <t>Owens-Illinois, Inc.</t>
-  </si>
-  <si>
     <t>7000.0</t>
   </si>
   <si>
@@ -277,15 +245,9 @@
     <t>7995.7</t>
   </si>
   <si>
-    <t>The Sherwin-Williams Company</t>
-  </si>
-  <si>
     <t>9534.5</t>
   </si>
   <si>
-    <t>L Brands, Inc.</t>
-  </si>
-  <si>
     <t>10458.7</t>
   </si>
   <si>
@@ -295,9 +257,6 @@
     <t>13145.9</t>
   </si>
   <si>
-    <t>American Electric Power Company, Inc.</t>
-  </si>
-  <si>
     <t>14945.0</t>
   </si>
   <si>
@@ -307,21 +266,12 @@
     <t>15303.0</t>
   </si>
   <si>
-    <t>The Progressive Corporation</t>
-  </si>
-  <si>
     <t>17083.9</t>
   </si>
   <si>
-    <t>The Goodyear Tire &amp;amp; Rubber Company</t>
-  </si>
-  <si>
     <t>20992.0</t>
   </si>
   <si>
-    <t>Macy's, Inc.</t>
-  </si>
-  <si>
     <t>27686.0</t>
   </si>
   <si>
@@ -337,31 +287,271 @@
     <t>76783.0</t>
   </si>
   <si>
-    <t>The Procter &amp;amp; Gamble Company</t>
-  </si>
-  <si>
     <t>85120.0</t>
   </si>
   <si>
-    <t>The Kroger Company</t>
-  </si>
-  <si>
     <t>96751.3</t>
   </si>
   <si>
-    <t>Cardinal Health, Inc.</t>
-  </si>
-  <si>
     <t>107552.0</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Progressive Corporation</t>
+  </si>
+  <si>
+    <t>Abercrombie &amp; Fitch Co.</t>
+  </si>
+  <si>
+    <t>Cardinal Health</t>
+  </si>
+  <si>
+    <t>Macy's</t>
+  </si>
+  <si>
+    <t>L Brands</t>
+  </si>
+  <si>
+    <t>Owens-Illinois</t>
+  </si>
+  <si>
+    <t>Omnicare</t>
+  </si>
+  <si>
+    <t>Big Lots</t>
+  </si>
+  <si>
+    <t>Andersons</t>
+  </si>
+  <si>
+    <t>American Financial Group</t>
+  </si>
+  <si>
+    <t>Lincoln Electric Holdings</t>
+  </si>
+  <si>
+    <t>Worthington Industries</t>
+  </si>
+  <si>
+    <t>Hyster-Yale Materials Handling</t>
+  </si>
+  <si>
+    <t>Applied Industrial Technologies</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>A. Schulman</t>
+  </si>
+  <si>
+    <t>Health Care REIT</t>
+  </si>
+  <si>
+    <t>Vantiv</t>
+  </si>
+  <si>
+    <t>Kroger</t>
+  </si>
+  <si>
+    <t>Procter &amp; Gamble</t>
+  </si>
+  <si>
+    <t>Goodyear Tire &amp; Rubber</t>
+  </si>
+  <si>
+    <t>American Electric Power</t>
+  </si>
+  <si>
+    <t>Sherwin-Williams</t>
+  </si>
+  <si>
+    <t>J.M. Smucker</t>
+  </si>
+  <si>
+    <t>Western &amp; Southern Mutual Holding</t>
+  </si>
+  <si>
+    <t>Timken</t>
+  </si>
+  <si>
+    <t>Cooper Tire &amp; Rubber</t>
+  </si>
+  <si>
+    <t>Scotts Miracle-Gro</t>
+  </si>
+  <si>
+    <t>Wendy's</t>
+  </si>
+  <si>
+    <t>CARDINAL HEALTH</t>
+  </si>
+  <si>
+    <t>KROGER</t>
+  </si>
+  <si>
+    <t>PROCTER &amp; GAMBLE</t>
+  </si>
+  <si>
+    <t>MARATHON PETROLEUM CORPORATION</t>
+  </si>
+  <si>
+    <t>NATIONWIDE MUTUAL INSURANCE CO.</t>
+  </si>
+  <si>
+    <t>MACY'S</t>
+  </si>
+  <si>
+    <t>GOODYEAR TIRE &amp; RUBBER</t>
+  </si>
+  <si>
+    <t>PROGRESSIVE CORPORATION</t>
+  </si>
+  <si>
+    <t>FIRSTENERGY CORP.</t>
+  </si>
+  <si>
+    <t>AMERICAN ELECTRIC POWER</t>
+  </si>
+  <si>
+    <t>PARKER-HANNIFIN CORPORATION</t>
+  </si>
+  <si>
+    <t>L BRANDS</t>
+  </si>
+  <si>
+    <t>SHERWIN-WILLIAMS</t>
+  </si>
+  <si>
+    <t>TRAVELCENTERS OF AMERICA LLC</t>
+  </si>
+  <si>
+    <t>DANA HOLDING CORPORATION</t>
+  </si>
+  <si>
+    <t>FIFTH THIRD BANCORP</t>
+  </si>
+  <si>
+    <t>OWENS-ILLINOIS</t>
+  </si>
+  <si>
+    <t>OMNICARE</t>
+  </si>
+  <si>
+    <t>CLIFFS NATURAL RESOURCES INC.</t>
+  </si>
+  <si>
+    <t>AK STEEL HOLDING CORPORATION</t>
+  </si>
+  <si>
+    <t>J.M. SMUCKER</t>
+  </si>
+  <si>
+    <t>BIG LOTS</t>
+  </si>
+  <si>
+    <t>WESTERN &amp; SOUTHERN MUTUAL HOLDING</t>
+  </si>
+  <si>
+    <t>ANDERSONS</t>
+  </si>
+  <si>
+    <t>OWENS CORNING</t>
+  </si>
+  <si>
+    <t>AMERICAN FINANCIAL GROUP</t>
+  </si>
+  <si>
+    <t>TIMKEN</t>
+  </si>
+  <si>
+    <t>MOMENTIVE SPECIALTY CHEMICALS INC.</t>
+  </si>
+  <si>
+    <t>KEYCORP</t>
+  </si>
+  <si>
+    <t>ABERCROMBIE &amp; FITCH CO.</t>
+  </si>
+  <si>
+    <t>ALERIS CORPORATION</t>
+  </si>
+  <si>
+    <t>GREIF</t>
+  </si>
+  <si>
+    <t>COOPER TIRE &amp; RUBBER</t>
+  </si>
+  <si>
+    <t>CINCINNATI FINANCIAL CORPORATION</t>
+  </si>
+  <si>
+    <t>CINTAS CORPORATION</t>
+  </si>
+  <si>
+    <t>RPM INTERNATIONAL INC.</t>
+  </si>
+  <si>
+    <t>HUNTINGTON BANCSHARES INCORPORATED</t>
+  </si>
+  <si>
+    <t>POLYONE CORPORATION</t>
+  </si>
+  <si>
+    <t>DIEBOLD, INCORPORATED</t>
+  </si>
+  <si>
+    <t>LINCOLN ELECTRIC HOLDINGS</t>
+  </si>
+  <si>
+    <t>SCOTTS MIRACLE-GRO</t>
+  </si>
+  <si>
+    <t>TERADATA CORPORATION</t>
+  </si>
+  <si>
+    <t>MEDICAL MUTUAL OF OHIO</t>
+  </si>
+  <si>
+    <t>WORTHINGTON INDUSTRIES</t>
+  </si>
+  <si>
+    <t>WENDY'S</t>
+  </si>
+  <si>
+    <t>HYSTER-YALE MATERIALS HANDLING</t>
+  </si>
+  <si>
+    <t>APPLIED INDUSTRIAL TECHNOLOGIES</t>
+  </si>
+  <si>
+    <t>METTLER-TOLEDO INTERNATIONAL INC.</t>
+  </si>
+  <si>
+    <t>DSW INC.</t>
+  </si>
+  <si>
+    <t>EXPRESS</t>
+  </si>
+  <si>
+    <t>CONVERGYS CORPORATION</t>
+  </si>
+  <si>
+    <t>A. SCHULMAN</t>
+  </si>
+  <si>
+    <t>HEALTH CARE REIT</t>
+  </si>
+  <si>
+    <t>VANTIV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -374,7 +564,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -400,7 +590,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -513,41 +703,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -558,26 +762,299 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>CARDINAL HEALTH</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>FRANKLIN</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>KROGER</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>HAMILTON</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>PROCTER &amp; GAMBLE</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>HAMILTON</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>MARATHON PETROLEUM</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>HANCOCK</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>NATIONWIDE</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>FRANKLIN</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>MACY'S</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>HAMILTON</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>PROGRESSIVE</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>CUYAHOGA</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>AMERICAN ELECTRIC POWER</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>FRANKLIN</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>GOODYEAR TIRE &amp; RUBBER</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>SUMMIT</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>FIRSTENERGY</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>SUMMIT</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>L BRANDS</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>FRANKLIN</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>SHERWIN-WILLIAMS</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>CUYAHOGA</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>PARKER-HANNIFIN</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>CUYAHOGA</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>J.M. SMUCKER</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>WAYNE</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>FIFTH THIRD BANCORP</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>HAMILTON</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>OWENS-ILLINOIS</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>WOOD</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>AMERICAN FINANCIAL GROUP</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>HAMILTON</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>AK STEEL HOLDING</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>BUTLER</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>DANA HOLDING</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>LUCAS</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>OWENS CORNING</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>LUCAS</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>TRAVELCENTERS OF AMERICA</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>CUYAHOGA</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>CINCINNATI FINANCIAL</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>BUTLER</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>KEYCORP</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>CUYAHOGA</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>WESTERN &amp; SOUTHERN FINANCIAL GROUP</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>HAMILTON</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>BIG LOTS</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>FRANKLIN</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -776,7 +1253,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -795,7 +1272,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -825,7 +1302,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -851,7 +1328,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -877,7 +1354,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -903,7 +1380,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -929,7 +1406,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -955,7 +1432,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -981,7 +1458,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1007,7 +1484,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1033,7 +1510,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1046,9 +1523,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1065,7 +1548,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1084,7 +1567,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,7 +1593,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,7 +1619,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,7 +1645,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,7 +1671,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,7 +1697,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1240,7 +1723,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1266,7 +1749,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,7 +1775,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1318,7 +1801,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1331,9 +1814,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1347,7 +1836,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1366,7 +1855,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1396,7 +1885,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1422,7 +1911,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1448,7 +1937,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1474,7 +1963,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1500,7 +1989,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1526,7 +2015,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1552,7 +2041,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1578,7 +2067,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1604,7 +2093,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1617,818 +2106,1213 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D56"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="42" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="27.6" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="F2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="4">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B3,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>FRANKLIN</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="7">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B4,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>HAMILTON</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="7">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B5,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>HAMILTON</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="7">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B6,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="7">
+        <v>100</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B7,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="7">
+        <v>109</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B8,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>HAMILTON</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="7">
+        <v>137</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B9,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>SUMMIT</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="7">
+        <v>166</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B10,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="7">
+        <v>181</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B11,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="7">
+        <v>185</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B12,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>FRANKLIN</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="7">
+        <v>211</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B13,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="7">
+        <v>258</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B14,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>FRANKLIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="7">
+        <v>282</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B15,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>CUYAHOGA</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="7">
+        <v>329</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B16,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="7">
+        <v>356</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B17,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="7">
+        <v>361</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B18,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>HAMILTON</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="7">
+        <v>364</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B19,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>WOOD</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="7">
+        <v>416</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B20,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="7">
+        <v>424</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B21,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="7">
+        <v>430</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B22,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="7">
+        <v>452</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B23,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>WAYNE</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="7">
+        <v>466</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B24,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>FRANKLIN</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="7">
+        <v>471</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B25,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="7">
+        <v>472</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B26,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="7">
+        <v>476</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B27,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>LUCAS</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="7">
+        <v>485</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B28,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>HAMILTON</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="7">
+        <v>493</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B29,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="7">
+        <v>505</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B30,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="7">
+        <v>510</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B31,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>CUYAHOGA</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="7">
+        <v>529</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B32,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="7">
+        <v>538</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B33,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="7">
+        <v>555</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B34,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="7">
+        <v>560</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B35,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="7">
+        <v>572</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B36,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="7">
+        <v>574</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B37,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="7">
+        <v>613</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B38,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="7">
+        <v>707</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B39,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="7">
+        <v>715</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B40,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="7">
+        <v>716</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B41,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="7">
+        <v>737</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B42,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="7">
+        <v>739</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B43,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="7">
+        <v>776</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B44,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="7">
+        <v>782</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B45,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="7">
+        <v>801</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B46,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="7">
+        <v>809</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B47,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="7">
+        <v>820</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B48,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="7">
+        <v>843</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B49,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="7">
+        <v>849</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B50,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="7">
+        <v>862</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B51,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="7">
+        <v>901</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B52,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="7">
+        <v>906</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B53,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="7">
+        <v>915</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B54,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="7">
+        <v>975</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B55,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="7">
+        <v>987</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
-        <v>987</v>
-      </c>
-      <c r="C3" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8">
-        <v>975</v>
-      </c>
-      <c r="C4" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8">
-        <v>915</v>
-      </c>
-      <c r="C5" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="B6" s="8">
-        <v>906</v>
-      </c>
-      <c r="C6" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="B7" s="8">
-        <v>901</v>
-      </c>
-      <c r="C7" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="B8" s="8">
-        <v>862</v>
-      </c>
-      <c r="C8" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="B9" s="8">
-        <v>849</v>
-      </c>
-      <c r="C9" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="B10" s="8">
-        <v>843</v>
-      </c>
-      <c r="C10" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="B11" s="8">
-        <v>820</v>
-      </c>
-      <c r="C11" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="B12" s="8">
-        <v>809</v>
-      </c>
-      <c r="C12" t="s" s="9">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="B13" s="8">
-        <v>801</v>
-      </c>
-      <c r="C13" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="B14" s="8">
-        <v>782</v>
-      </c>
-      <c r="C14" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="B15" s="8">
-        <v>776</v>
-      </c>
-      <c r="C15" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="B16" s="8">
-        <v>737</v>
-      </c>
-      <c r="C16" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="B17" s="8">
-        <v>739</v>
-      </c>
-      <c r="C17" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="B18" s="8">
-        <v>715</v>
-      </c>
-      <c r="C18" t="s" s="9">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="B19" s="8">
-        <v>716</v>
-      </c>
-      <c r="C19" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="B20" s="8">
-        <v>707</v>
-      </c>
-      <c r="C20" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="B21" s="8">
-        <v>613</v>
-      </c>
-      <c r="C21" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="B22" s="8">
-        <v>574</v>
-      </c>
-      <c r="C22" t="s" s="9">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="B23" s="8">
-        <v>572</v>
-      </c>
-      <c r="C23" t="s" s="9">
-        <v>47</v>
-      </c>
-      <c r="D23" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="B24" s="8">
-        <v>555</v>
-      </c>
-      <c r="C24" t="s" s="9">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="B25" s="8">
-        <v>560</v>
-      </c>
-      <c r="C25" t="s" s="9">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="B26" s="8">
-        <v>538</v>
-      </c>
-      <c r="C26" t="s" s="9">
-        <v>53</v>
-      </c>
-      <c r="D26" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="B27" s="8">
-        <v>529</v>
-      </c>
-      <c r="C27" t="s" s="9">
-        <v>55</v>
-      </c>
-      <c r="D27" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="B28" s="8">
-        <v>505</v>
-      </c>
-      <c r="C28" t="s" s="9">
-        <v>57</v>
-      </c>
-      <c r="D28" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="B29" s="8">
-        <v>510</v>
-      </c>
-      <c r="C29" t="s" s="9">
-        <v>59</v>
-      </c>
-      <c r="D29" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="7">
-        <v>60</v>
-      </c>
-      <c r="B30" s="8">
-        <v>493</v>
-      </c>
-      <c r="C30" t="s" s="9">
-        <v>61</v>
-      </c>
-      <c r="D30" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="B31" s="8">
-        <v>485</v>
-      </c>
-      <c r="C31" t="s" s="9">
-        <v>63</v>
-      </c>
-      <c r="D31" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="7">
-        <v>64</v>
-      </c>
-      <c r="B32" s="8">
-        <v>471</v>
-      </c>
-      <c r="C32" t="s" s="9">
-        <v>65</v>
-      </c>
-      <c r="D32" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="7">
-        <v>66</v>
-      </c>
-      <c r="B33" s="8">
-        <v>472</v>
-      </c>
-      <c r="C33" t="s" s="9">
-        <v>67</v>
-      </c>
-      <c r="D33" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="B34" s="8">
-        <v>476</v>
-      </c>
-      <c r="C34" t="s" s="9">
-        <v>69</v>
-      </c>
-      <c r="D34" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="7">
-        <v>70</v>
-      </c>
-      <c r="B35" s="8">
-        <v>466</v>
-      </c>
-      <c r="C35" t="s" s="9">
-        <v>71</v>
-      </c>
-      <c r="D35" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="7">
-        <v>72</v>
-      </c>
-      <c r="B36" s="8">
-        <v>452</v>
-      </c>
-      <c r="C36" t="s" s="9">
-        <v>73</v>
-      </c>
-      <c r="D36" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="7">
-        <v>74</v>
-      </c>
-      <c r="B37" s="8">
-        <v>430</v>
-      </c>
-      <c r="C37" t="s" s="9">
-        <v>75</v>
-      </c>
-      <c r="D37" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="7">
-        <v>76</v>
-      </c>
-      <c r="B38" s="8">
-        <v>424</v>
-      </c>
-      <c r="C38" t="s" s="9">
-        <v>77</v>
-      </c>
-      <c r="D38" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="B39" s="8">
-        <v>416</v>
-      </c>
-      <c r="C39" t="s" s="9">
-        <v>79</v>
-      </c>
-      <c r="D39" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="7">
-        <v>80</v>
-      </c>
-      <c r="B40" s="8">
-        <v>364</v>
-      </c>
-      <c r="C40" t="s" s="9">
-        <v>81</v>
-      </c>
-      <c r="D40" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="7">
-        <v>82</v>
-      </c>
-      <c r="B41" s="8">
-        <v>356</v>
-      </c>
-      <c r="C41" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="D41" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="7">
-        <v>84</v>
-      </c>
-      <c r="B42" s="8">
-        <v>361</v>
-      </c>
-      <c r="C42" t="s" s="9">
-        <v>85</v>
-      </c>
-      <c r="D42" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="7">
-        <v>86</v>
-      </c>
-      <c r="B43" s="8">
-        <v>329</v>
-      </c>
-      <c r="C43" t="s" s="9">
-        <v>87</v>
-      </c>
-      <c r="D43" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="7">
-        <v>88</v>
-      </c>
-      <c r="B44" s="8">
-        <v>282</v>
-      </c>
-      <c r="C44" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="D44" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="7">
-        <v>90</v>
-      </c>
-      <c r="B45" s="8">
-        <v>258</v>
-      </c>
-      <c r="C45" t="s" s="9">
-        <v>91</v>
-      </c>
-      <c r="D45" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="7">
-        <v>92</v>
-      </c>
-      <c r="B46" s="8">
-        <v>211</v>
-      </c>
-      <c r="C46" t="s" s="9">
-        <v>93</v>
-      </c>
-      <c r="D46" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="7">
-        <v>94</v>
-      </c>
-      <c r="B47" s="8">
-        <v>185</v>
-      </c>
-      <c r="C47" t="s" s="9">
-        <v>95</v>
-      </c>
-      <c r="D47" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="7">
-        <v>96</v>
-      </c>
-      <c r="B48" s="8">
-        <v>181</v>
-      </c>
-      <c r="C48" t="s" s="9">
-        <v>97</v>
-      </c>
-      <c r="D48" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="7">
-        <v>98</v>
-      </c>
-      <c r="B49" s="8">
-        <v>166</v>
-      </c>
-      <c r="C49" t="s" s="9">
-        <v>99</v>
-      </c>
-      <c r="D49" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="7">
-        <v>100</v>
-      </c>
-      <c r="B50" s="8">
-        <v>137</v>
-      </c>
-      <c r="C50" t="s" s="9">
-        <v>101</v>
-      </c>
-      <c r="D50" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" t="s" s="7">
-        <v>102</v>
-      </c>
-      <c r="B51" s="8">
-        <v>109</v>
-      </c>
-      <c r="C51" t="s" s="9">
-        <v>103</v>
-      </c>
-      <c r="D51" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" t="s" s="7">
-        <v>104</v>
-      </c>
-      <c r="B52" s="8">
-        <v>100</v>
-      </c>
-      <c r="C52" t="s" s="9">
-        <v>105</v>
-      </c>
-      <c r="D52" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" t="s" s="7">
-        <v>106</v>
-      </c>
-      <c r="B53" s="8">
-        <v>33</v>
-      </c>
-      <c r="C53" t="s" s="9">
-        <v>107</v>
-      </c>
-      <c r="D53" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="B54" s="8">
-        <v>28</v>
-      </c>
-      <c r="C54" t="s" s="9">
-        <v>109</v>
-      </c>
-      <c r="D54" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="7">
-        <v>110</v>
-      </c>
-      <c r="B55" s="8">
-        <v>23</v>
-      </c>
-      <c r="C55" t="s" s="9">
-        <v>111</v>
-      </c>
-      <c r="D55" t="s" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="7">
-        <v>112</v>
-      </c>
-      <c r="B56" s="8">
-        <v>19</v>
-      </c>
-      <c r="C56" t="s" s="9">
-        <v>113</v>
-      </c>
-      <c r="D56" t="s" s="9">
-        <v>7</v>
+      <c r="E56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <f>_xlfn.XLOOKUP(B56,[1]Sheet1!$C$2:$C$26,[1]Sheet1!$D$2:$D$26,"N/A",0,1)</f>
+        <v>N/A</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:F56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
